--- a/Waste Data list.xlsx
+++ b/Waste Data list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unoah\Resources\Module 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB811B-081D-4B04-BE03-6E08D5EBE580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC00FFF-FF68-4703-BEE4-611193C264EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{B04B41B1-E45B-4F6B-8F43-0A72E2EF31DB}"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{B04B41B1-E45B-4F6B-8F43-0A72E2EF31DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>https://www.fairfaxcounty.gov/publicworks/recycling-trash/solid-waste-management-plan-update-2015-2035</t>
+  </si>
+  <si>
+    <t>https://metadata.phila.gov/#home/datasetdetails/5543866e20583086178c4f1e/representationdetails/55438ab49b989a05172d0d55/</t>
+  </si>
+  <si>
+    <t>Big Belly Trash Bin Usage</t>
+  </si>
+  <si>
+    <t>Philadelphia Streets Department</t>
+  </si>
+  <si>
+    <t>Big Belly Waste Baskets (Trash Bins)</t>
+  </si>
+  <si>
+    <t>https://metadata.phila.gov/#home/datasetdetails/555f8139f15fcb6c6ed4414f/representationdetails/556de53bcf0e0dca19464e91/</t>
   </si>
 </sst>
 </file>
@@ -519,17 +534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104A7CC9-27AF-4BA2-B7B3-D2F7992D9B12}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,12 +701,36 @@
         <v>37</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B370EF8D-8EA6-47AC-B521-3C9F06278825}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{A166F3CE-A162-47FE-B596-E449FF993826}"/>
+    <hyperlink ref="C15" r:id="rId3" location="home/datasetdetails/5543866e20583086178c4f1e/representationdetails/55438ab49b989a05172d0d55/" xr:uid="{5A74847A-ECC2-4B23-AE80-7A7F8B29F4C1}"/>
+    <hyperlink ref="C16" r:id="rId4" location="home/datasetdetails/555f8139f15fcb6c6ed4414f/representationdetails/556de53bcf0e0dca19464e91/" xr:uid="{58E28060-7E24-4DFF-889D-FC114F34294F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>